--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc101_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc101_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +633,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +726,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -794,10 +806,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -841,28 +853,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -887,28 +899,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -967,10 +979,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1014,28 +1026,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1060,28 +1072,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1198,10 +1210,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1245,28 +1257,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1291,28 +1303,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1371,10 +1383,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1418,28 +1430,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1464,28 +1476,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1544,10 +1556,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1591,28 +1603,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1637,28 +1649,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1746,10 +1758,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1793,28 +1805,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1839,28 +1851,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1919,10 +1931,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1966,28 +1978,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2012,28 +2024,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2121,10 +2133,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2168,28 +2180,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2214,28 +2226,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2497,10 +2509,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2544,28 +2556,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2590,28 +2602,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2699,10 +2711,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2746,28 +2758,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2792,28 +2804,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2872,10 +2884,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2919,28 +2931,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2965,28 +2977,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3045,10 +3057,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3092,28 +3104,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3138,28 +3150,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3218,10 +3230,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3265,28 +3277,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3311,28 +3323,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3391,10 +3403,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3438,28 +3450,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3484,28 +3496,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3622,10 +3634,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3669,28 +3681,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3715,28 +3727,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3795,10 +3807,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3842,28 +3854,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3888,28 +3900,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3968,10 +3980,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4015,28 +4027,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4061,28 +4073,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4170,10 +4182,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4217,28 +4229,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4263,28 +4275,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4372,10 +4384,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4419,28 +4431,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4465,28 +4477,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4574,10 +4586,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4621,28 +4633,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4667,28 +4679,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4747,10 +4759,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4794,28 +4806,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4840,28 +4852,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4920,10 +4932,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4967,28 +4979,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5013,28 +5025,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5093,10 +5105,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5140,28 +5152,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5186,28 +5198,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5324,10 +5336,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5371,28 +5383,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5417,28 +5429,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5497,10 +5509,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5544,28 +5556,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5590,28 +5602,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5670,10 +5682,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5717,28 +5729,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5763,28 +5775,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5843,10 +5855,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5890,28 +5902,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5936,28 +5948,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6045,10 +6057,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6092,28 +6104,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6138,28 +6150,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6218,10 +6230,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6265,28 +6277,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6311,28 +6323,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6391,10 +6403,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6438,28 +6450,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6484,28 +6496,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6709,10 +6721,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6756,28 +6768,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6802,28 +6814,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6882,10 +6894,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6929,28 +6941,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6975,28 +6987,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7084,10 +7096,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7131,28 +7143,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="A243" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="2">
+      <c r="C243" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7177,28 +7189,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="2">
+      <c r="C245" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="2">
+      <c r="D245" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="2">
+      <c r="I245" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7257,10 +7269,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7304,28 +7316,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7350,28 +7362,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7430,10 +7442,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7477,28 +7489,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7523,28 +7535,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7603,10 +7615,10 @@
       <c r="I259">
         <f>((C259-C258)^2+(D259- D258)^2)^.5</f>
       </c>
-      <c r="J259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K259" s="2" t="s">
+      <c r="J259" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K259" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L259" t="n">
@@ -7650,28 +7662,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="2">
+      <c r="A261" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C261" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D261" t="s" s="2">
+      <c r="C261" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D261" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7696,28 +7708,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C263" t="s" s="2">
+      <c r="C263" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D263" t="s" s="2">
+      <c r="D263" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I263" t="s" s="2">
+      <c r="I263" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7805,10 +7817,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7852,28 +7864,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7898,28 +7910,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7978,10 +7990,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8025,28 +8037,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8071,28 +8083,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8238,10 +8250,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="J281" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8285,28 +8297,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="2">
+      <c r="A283" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="2">
+      <c r="C283" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8331,28 +8343,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="2">
+      <c r="C285" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="2">
+      <c r="D285" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="2">
+      <c r="I285" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8411,10 +8423,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="2" t="s">
+      <c r="J287" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8458,28 +8470,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="2">
+      <c r="A289" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="2">
+      <c r="C289" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8504,28 +8516,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="2">
+      <c r="C291" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="2">
+      <c r="D291" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="2">
+      <c r="I291" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8584,10 +8596,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="2" t="s">
+      <c r="J293" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8631,28 +8643,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="2">
+      <c r="A295" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="2">
+      <c r="C295" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8677,28 +8689,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="2">
+      <c r="C297" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="2">
+      <c r="D297" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="2">
+      <c r="I297" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8815,10 +8827,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="2" t="s">
+      <c r="J301" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
@@ -8862,28 +8874,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s" s="2">
+      <c r="A303" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B303" t="s" s="2">
+      <c r="B303" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C303" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D303" t="s" s="2">
+      <c r="C303" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E303" t="s" s="2">
+      <c r="E303" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F303" t="s" s="2">
+      <c r="F303" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G303" t="s" s="2">
+      <c r="G303" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H303" t="s" s="2">
+      <c r="H303" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8908,28 +8920,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C305" t="s" s="2">
+      <c r="C305" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D305" t="s" s="2">
+      <c r="D305" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I305" t="s" s="2">
+      <c r="I305" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9046,10 +9058,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="2" t="s">
+      <c r="J309" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9093,28 +9105,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="2">
+      <c r="A311" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="2">
+      <c r="C311" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9139,28 +9151,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="2">
+      <c r="C313" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="2">
+      <c r="D313" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="2">
+      <c r="I313" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9219,10 +9231,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="2" t="s">
+      <c r="J315" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9266,28 +9278,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="2">
+      <c r="A317" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="2">
+      <c r="C317" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9312,28 +9324,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="2">
+      <c r="C319" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="2">
+      <c r="D319" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="2">
+      <c r="I319" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9508,10 +9520,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="2" t="s">
+      <c r="J325" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9555,28 +9567,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="2">
+      <c r="A327" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="2">
+      <c r="C327" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9601,28 +9613,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="2">
+      <c r="C329" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="2">
+      <c r="D329" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="2">
+      <c r="I329" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9681,10 +9693,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="2" t="s">
+      <c r="J331" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">
@@ -9728,28 +9740,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="s" s="2">
+      <c r="A333" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C333" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D333" t="s" s="2">
+      <c r="C333" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D333" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9774,28 +9786,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="B335" t="s" s="2">
+      <c r="B335" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C335" t="s" s="2">
+      <c r="C335" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D335" t="s" s="2">
+      <c r="D335" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E335" t="s" s="2">
+      <c r="E335" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F335" t="s" s="2">
+      <c r="F335" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G335" t="s" s="2">
+      <c r="G335" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H335" t="s" s="2">
+      <c r="H335" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I335" t="s" s="2">
+      <c r="I335" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9883,10 +9895,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="2" t="s">
+      <c r="J338" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9930,28 +9942,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="2">
+      <c r="A340" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="2">
+      <c r="B340" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="2">
+      <c r="C340" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="2">
+      <c r="E340" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="2">
+      <c r="F340" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="2">
+      <c r="G340" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="2">
+      <c r="H340" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9976,28 +9988,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="2">
+      <c r="C342" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="2">
+      <c r="D342" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="2">
+      <c r="I342" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10114,10 +10126,10 @@
       <c r="I346">
         <f>((C346-C345)^2+(D346- D345)^2)^.5</f>
       </c>
-      <c r="J346" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K346" s="2" t="s">
+      <c r="J346" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K346" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L346" t="n">
@@ -10161,28 +10173,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="s" s="2">
+      <c r="A348" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C348" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D348" t="s" s="2">
+      <c r="C348" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D348" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10207,28 +10219,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="B350" t="s" s="2">
+      <c r="B350" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C350" t="s" s="2">
+      <c r="C350" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D350" t="s" s="2">
+      <c r="D350" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E350" t="s" s="2">
+      <c r="E350" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F350" t="s" s="2">
+      <c r="F350" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G350" t="s" s="2">
+      <c r="G350" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H350" t="s" s="2">
+      <c r="H350" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I350" t="s" s="2">
+      <c r="I350" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10316,10 +10328,10 @@
       <c r="I353">
         <f>((C353-C352)^2+(D353- D352)^2)^.5</f>
       </c>
-      <c r="J353" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K353" s="2" t="s">
+      <c r="J353" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K353" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L353" t="n">
@@ -10363,28 +10375,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="s" s="2">
+      <c r="A355" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B355" t="s" s="2">
+      <c r="B355" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C355" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D355" t="s" s="2">
+      <c r="C355" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D355" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E355" t="s" s="2">
+      <c r="E355" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F355" t="s" s="2">
+      <c r="F355" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G355" t="s" s="2">
+      <c r="G355" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H355" t="s" s="2">
+      <c r="H355" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10409,28 +10421,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="B357" t="s" s="2">
+      <c r="B357" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C357" t="s" s="2">
+      <c r="C357" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D357" t="s" s="2">
+      <c r="D357" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E357" t="s" s="2">
+      <c r="E357" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F357" t="s" s="2">
+      <c r="F357" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G357" t="s" s="2">
+      <c r="G357" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H357" t="s" s="2">
+      <c r="H357" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I357" t="s" s="2">
+      <c r="I357" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10518,10 +10530,10 @@
       <c r="I360">
         <f>((C360-C359)^2+(D360- D359)^2)^.5</f>
       </c>
-      <c r="J360" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K360" s="2" t="s">
+      <c r="J360" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K360" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L360" t="n">
@@ -10565,28 +10577,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="s" s="2">
+      <c r="A362" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B362" t="s" s="2">
+      <c r="B362" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C362" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D362" t="s" s="2">
+      <c r="C362" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D362" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E362" t="s" s="2">
+      <c r="E362" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F362" t="s" s="2">
+      <c r="F362" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G362" t="s" s="2">
+      <c r="G362" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H362" t="s" s="2">
+      <c r="H362" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10611,28 +10623,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="B364" t="s" s="2">
+      <c r="B364" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C364" t="s" s="2">
+      <c r="C364" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D364" t="s" s="2">
+      <c r="D364" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E364" t="s" s="2">
+      <c r="E364" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F364" t="s" s="2">
+      <c r="F364" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G364" t="s" s="2">
+      <c r="G364" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H364" t="s" s="2">
+      <c r="H364" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I364" t="s" s="2">
+      <c r="I364" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10691,10 +10703,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="2" t="s">
+      <c r="J366" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
